--- a/ECENGR247C-80/Final_Project/mlp_results/accuracy_for_each_corpus.xlsx
+++ b/ECENGR247C-80/Final_Project/mlp_results/accuracy_for_each_corpus.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MICHAE~1\DOCUME~1\MobaXterm\slash\RemoteFiles\395624_2_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Potter\Desktop\text_gcn\mlp_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670548C5-EB75-4830-AC2D-421D704E3BBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893CAA21-5EE4-4144-88F4-2F40F61FB8D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{8830E7B4-A41E-49CA-A247-257E4B0E9597}"/>
+    <workbookView xWindow="12360" yWindow="5940" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{8830E7B4-A41E-49CA-A247-257E4B0E9597}"/>
   </bookViews>
   <sheets>
     <sheet name="GCN" sheetId="1" r:id="rId1"/>
-    <sheet name="Logistic" sheetId="2" r:id="rId2"/>
+    <sheet name="GCN_Dropout" sheetId="5" r:id="rId2"/>
+    <sheet name="GCN_Add" sheetId="6" r:id="rId3"/>
+    <sheet name="Logistic" sheetId="2" r:id="rId4"/>
+    <sheet name="BERT" sheetId="3" r:id="rId5"/>
+    <sheet name="BERT_Pretrained" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="5">
   <si>
     <t>20ng</t>
   </si>
@@ -56,6 +60,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,8 +92,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396751B1-AADD-425A-9E9D-929BAF21A4D0}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,11 +611,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239064D4-5C8E-4E12-998A-4D22B7123F67}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95C7A00-8D61-40B9-86C0-6DA485FF7F7E}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,6 +639,410 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>0.859931</v>
+      </c>
+      <c r="B2">
+        <v>0.96893600000000002</v>
+      </c>
+      <c r="C2">
+        <v>0.93496900000000005</v>
+      </c>
+      <c r="D2">
+        <v>0.68216699999999997</v>
+      </c>
+      <c r="E2">
+        <v>0.76533499999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.858205</v>
+      </c>
+      <c r="B3">
+        <v>0.96756500000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.93302200000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.67796199999999995</v>
+      </c>
+      <c r="E3">
+        <v>0.76617900000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.85780699999999999</v>
+      </c>
+      <c r="B4">
+        <v>0.96802200000000005</v>
+      </c>
+      <c r="C4">
+        <v>0.93380099999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.67400400000000005</v>
+      </c>
+      <c r="E4">
+        <v>0.76871100000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.85847099999999998</v>
+      </c>
+      <c r="B5">
+        <v>0.96802200000000005</v>
+      </c>
+      <c r="C5">
+        <v>0.92640199999999995</v>
+      </c>
+      <c r="D5">
+        <v>0.67746700000000004</v>
+      </c>
+      <c r="E5">
+        <v>0.76702300000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.858205</v>
+      </c>
+      <c r="B6">
+        <v>0.96619500000000003</v>
+      </c>
+      <c r="C6">
+        <v>0.93263200000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.67474599999999996</v>
+      </c>
+      <c r="E6">
+        <v>0.76477200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.85873600000000005</v>
+      </c>
+      <c r="B7">
+        <v>0.96619500000000003</v>
+      </c>
+      <c r="C7">
+        <v>0.93302200000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.68018800000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.77042299999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.85860300000000001</v>
+      </c>
+      <c r="B8">
+        <v>0.96893600000000002</v>
+      </c>
+      <c r="C8">
+        <v>0.92951700000000004</v>
+      </c>
+      <c r="D8">
+        <v>0.66856300000000002</v>
+      </c>
+      <c r="E8">
+        <v>0.76195800000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.85860300000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.96665100000000004</v>
+      </c>
+      <c r="C9">
+        <v>0.924844</v>
+      </c>
+      <c r="D9">
+        <v>0.66559500000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.76224000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.85714299999999999</v>
+      </c>
+      <c r="B10">
+        <v>0.96847899999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.92718100000000003</v>
+      </c>
+      <c r="D10">
+        <v>0.67301500000000003</v>
+      </c>
+      <c r="E10">
+        <v>0.76139599999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.85448800000000003</v>
+      </c>
+      <c r="B11">
+        <v>0.96710799999999997</v>
+      </c>
+      <c r="C11">
+        <v>0.93263200000000002</v>
+      </c>
+      <c r="D11">
+        <v>0.67647800000000002</v>
+      </c>
+      <c r="E11">
+        <v>0.76901399999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F72066-4134-47A9-AD75-7AFECB6D5548}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.859267</v>
+      </c>
+      <c r="B2">
+        <v>0.96619500000000003</v>
+      </c>
+      <c r="C2">
+        <v>0.92562299999999997</v>
+      </c>
+      <c r="D2">
+        <v>0.65866899999999995</v>
+      </c>
+      <c r="E2">
+        <v>0.76420900000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.85740799999999995</v>
+      </c>
+      <c r="B3">
+        <v>0.96299699999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.92757000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.66213200000000005</v>
+      </c>
+      <c r="E3">
+        <v>0.76139599999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.85860300000000001</v>
+      </c>
+      <c r="B4">
+        <v>0.96071300000000004</v>
+      </c>
+      <c r="C4">
+        <v>0.92640199999999995</v>
+      </c>
+      <c r="D4">
+        <v>0.67548799999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.76224000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.85647899999999999</v>
+      </c>
+      <c r="B5">
+        <v>0.96253999999999995</v>
+      </c>
+      <c r="C5">
+        <v>0.91978199999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.65273300000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.74901499999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.85714299999999999</v>
+      </c>
+      <c r="B6">
+        <v>0.960256</v>
+      </c>
+      <c r="C6">
+        <v>0.91939300000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.67227300000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.75464299999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.85780699999999999</v>
+      </c>
+      <c r="B7">
+        <v>0.95979899999999996</v>
+      </c>
+      <c r="C7">
+        <v>0.92990700000000004</v>
+      </c>
+      <c r="D7">
+        <v>0.67722000000000004</v>
+      </c>
+      <c r="E7">
+        <v>0.75689399999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.85953299999999999</v>
+      </c>
+      <c r="B8">
+        <v>0.96619500000000003</v>
+      </c>
+      <c r="C8">
+        <v>0.92873799999999995</v>
+      </c>
+      <c r="D8">
+        <v>0.67252000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.75098500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.85568200000000005</v>
+      </c>
+      <c r="B9">
+        <v>0.96299699999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.92640199999999995</v>
+      </c>
+      <c r="D9">
+        <v>0.66732599999999997</v>
+      </c>
+      <c r="E9">
+        <v>0.75745600000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.85900200000000004</v>
+      </c>
+      <c r="B10">
+        <v>0.96528099999999994</v>
+      </c>
+      <c r="C10">
+        <v>0.92172900000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.65970099999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.76674200000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.85860300000000001</v>
+      </c>
+      <c r="B11">
+        <v>0.96532799999999996</v>
+      </c>
+      <c r="C11">
+        <v>0.92601199999999995</v>
+      </c>
+      <c r="D11">
+        <v>0.65671599999999997</v>
+      </c>
+      <c r="E11">
+        <v>0.75998900000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239064D4-5C8E-4E12-998A-4D22B7123F67}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>0.83722799999999997</v>
       </c>
       <c r="B2">
@@ -779,6 +1192,172 @@
       </c>
       <c r="E10">
         <v>0.76027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.83722799999999997</v>
+      </c>
+      <c r="B11">
+        <v>0.97213300000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.94197799999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.65792700000000004</v>
+      </c>
+      <c r="E11">
+        <v>0.76027</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279DCA76-AD01-432B-8A3A-AA84EDC8104B}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.79835999999999996</v>
+      </c>
+      <c r="B2">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="C2">
+        <v>0.93368099999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.53613809999999995</v>
+      </c>
+      <c r="E2">
+        <v>0.735232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.80393689999999995</v>
+      </c>
+      <c r="B3">
+        <v>0.96830000000000005</v>
+      </c>
+      <c r="C3">
+        <v>0.94255800000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.50701189999999996</v>
+      </c>
+      <c r="E3">
+        <v>0.74226400000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.78987660000000004</v>
+      </c>
+      <c r="B4">
+        <v>0.97379599999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.94569099999999995</v>
+      </c>
+      <c r="D4">
+        <v>0.56472489999999997</v>
+      </c>
+      <c r="E4">
+        <v>0.74613220000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.793157</v>
+      </c>
+      <c r="B5">
+        <v>0.97562400000000005</v>
+      </c>
+      <c r="C5">
+        <v>0.94047000000000003</v>
+      </c>
+      <c r="D5">
+        <v>0.54099240000000004</v>
+      </c>
+      <c r="E5">
+        <v>0.74331930000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.803624</v>
+      </c>
+      <c r="B6">
+        <v>0.97196830000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.94986950000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.51860839999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.74120960000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B18E3A-A283-417D-BA68-50323D7F0498}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.85720980000000002</v>
+      </c>
+      <c r="B2">
+        <v>0.71413159999999998</v>
       </c>
     </row>
   </sheetData>
